--- a/biology/Histoire de la zoologie et de la botanique/Sálim_Ali/Sálim_Ali.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sálim_Ali/Sálim_Ali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A1lim_Ali</t>
+          <t>Sálim_Ali</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sálim Ali — son nom complet Sálim Moizuddin Abdul Ali — né le 12 novembre 1896 à Bombay et mort le 27 juillet 1987 (à 90 ans) dans la même ville, est un ornithologue indien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A1lim_Ali</t>
+          <t>Sálim_Ali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très tôt orphelin, Sálim Ali est élevé par son oncle maternel, Amiruddin Tyabji, chasseur et proche de la nature. À 10 ans, Sálim tue un oiseau étrange que son oncle ne connaît pas. Celui-ci l'envoie à Bombay au siège de la Société d'histoire naturelle. Cette démarche change le cours de la vie du jeune Sálim Ali. Il est reçu par Walter Samuel Millard, secrétaire honoraire de la Société, qui lui montre les collections d'oiseaux empaillés.
 Ne trouvant pas d'emploi dans le domaine de l'histoire naturelle, Sálim Ali part, en 1919 en Birmanie pour s'occuper d'exploitation forestière et de mines. Il en profite pour explorer les forêts birmanes. Mais les affaires ne sont pas florissantes et il doit retourner en Inde. Il tente à nouveau de trouver un poste d'ornithologue mais les diplômes lui font défaut.
